--- a/The Fiddler/2024.11.08 Where will the sorting hat put you.xlsx
+++ b/The Fiddler/2024.11.08 Where will the sorting hat put you.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Python\Puzzles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF83072-371B-42AD-9E67-D7D6D02CB67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9A08BA-9751-4DAB-8E44-A192D4B33F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -122,9 +117,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +437,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,7 +496,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="D3:I3" si="0">1/3*D4</f>
+        <f t="shared" ref="E3:I3" si="0">1/3*D4</f>
         <v>0.22222222222222224</v>
       </c>
       <c r="F3" s="4">
@@ -603,5 +598,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>